--- a/demo2.xlsx
+++ b/demo2.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
